--- a/data/pca/factorExposure/factorExposure_2016-07-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01070065839444457</v>
+        <v>0.01339029814281595</v>
       </c>
       <c r="C2">
-        <v>-0.05245623727687482</v>
+        <v>0.04361709816552548</v>
       </c>
       <c r="D2">
-        <v>0.03832706584796676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06207772489049048</v>
+      </c>
+      <c r="E2">
+        <v>-0.06925680874973468</v>
+      </c>
+      <c r="F2">
+        <v>0.06626157558480487</v>
+      </c>
+      <c r="G2">
+        <v>0.03517054989852552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04964034672491918</v>
+        <v>0.02915235330782178</v>
       </c>
       <c r="C3">
-        <v>-0.1070525323724807</v>
+        <v>0.07939379617749631</v>
       </c>
       <c r="D3">
-        <v>0.09947285689934561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08896651673771362</v>
+      </c>
+      <c r="E3">
+        <v>-0.0707079914674103</v>
+      </c>
+      <c r="F3">
+        <v>-0.004862783010362627</v>
+      </c>
+      <c r="G3">
+        <v>-0.03998534732034943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06481586737022643</v>
+        <v>0.05785399323793111</v>
       </c>
       <c r="C4">
-        <v>-0.06088822969709783</v>
+        <v>0.06670174762942567</v>
       </c>
       <c r="D4">
-        <v>0.03064175201834263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05964432963131799</v>
+      </c>
+      <c r="E4">
+        <v>-0.06923940141642329</v>
+      </c>
+      <c r="F4">
+        <v>0.0786760259339597</v>
+      </c>
+      <c r="G4">
+        <v>-0.03883336032426753</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.039446480411325</v>
+        <v>0.03553208791875312</v>
       </c>
       <c r="C6">
-        <v>-0.03986111669111519</v>
+        <v>0.03231807700631048</v>
       </c>
       <c r="D6">
-        <v>0.03401292540696101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06399068771146912</v>
+      </c>
+      <c r="E6">
+        <v>-0.0720441737958829</v>
+      </c>
+      <c r="F6">
+        <v>0.05949062659363131</v>
+      </c>
+      <c r="G6">
+        <v>-0.02356802927276684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02153964325745026</v>
+        <v>0.01855112985567008</v>
       </c>
       <c r="C7">
-        <v>-0.04402305993685843</v>
+        <v>0.03863962258066828</v>
       </c>
       <c r="D7">
-        <v>-0.003783436191158431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03713149153324787</v>
+      </c>
+      <c r="E7">
+        <v>-0.04718808256457737</v>
+      </c>
+      <c r="F7">
+        <v>0.09976216545804843</v>
+      </c>
+      <c r="G7">
+        <v>-0.008331155700380552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002139116791040204</v>
+        <v>0.003400757011877104</v>
       </c>
       <c r="C8">
-        <v>-0.03035564081167868</v>
+        <v>0.02899876278471888</v>
       </c>
       <c r="D8">
-        <v>0.02713472536928625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03114563273965162</v>
+      </c>
+      <c r="E8">
+        <v>-0.05076103306310287</v>
+      </c>
+      <c r="F8">
+        <v>0.03702951457526967</v>
+      </c>
+      <c r="G8">
+        <v>-0.00936128068033984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03495158321617551</v>
+        <v>0.03681155160171547</v>
       </c>
       <c r="C9">
-        <v>-0.04595314907200482</v>
+        <v>0.05268322144569926</v>
       </c>
       <c r="D9">
-        <v>0.0164450353932207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04234293696465916</v>
+      </c>
+      <c r="E9">
+        <v>-0.05614075617336335</v>
+      </c>
+      <c r="F9">
+        <v>0.08499049288020341</v>
+      </c>
+      <c r="G9">
+        <v>-0.02457357997549436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07382889590799895</v>
+        <v>0.09967788924104229</v>
       </c>
       <c r="C10">
-        <v>0.1946672703516019</v>
+        <v>-0.196913502576104</v>
       </c>
       <c r="D10">
-        <v>-0.008513754253116861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.005824852277087458</v>
+      </c>
+      <c r="E10">
+        <v>-0.04318766751268185</v>
+      </c>
+      <c r="F10">
+        <v>0.04101645318130633</v>
+      </c>
+      <c r="G10">
+        <v>-0.0085586180545604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04095478965703118</v>
+        <v>0.03648319829400909</v>
       </c>
       <c r="C11">
-        <v>-0.05457240936702482</v>
+        <v>0.05126857573252342</v>
       </c>
       <c r="D11">
-        <v>0.01491468853402659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03353299923529696</v>
+      </c>
+      <c r="E11">
+        <v>-0.01589825283609898</v>
+      </c>
+      <c r="F11">
+        <v>0.06563867776368197</v>
+      </c>
+      <c r="G11">
+        <v>-0.01541409609078153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04073040069538537</v>
+        <v>0.03723477149265039</v>
       </c>
       <c r="C12">
-        <v>-0.04868330471088265</v>
+        <v>0.04712757361359635</v>
       </c>
       <c r="D12">
-        <v>0.003144604079044122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.025311186135538</v>
+      </c>
+      <c r="E12">
+        <v>-0.02320823896823407</v>
+      </c>
+      <c r="F12">
+        <v>0.06675352926089551</v>
+      </c>
+      <c r="G12">
+        <v>-0.01224138434240892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0152710152718629</v>
+        <v>0.01238846694861158</v>
       </c>
       <c r="C13">
-        <v>-0.05527158942520002</v>
+        <v>0.04663356393475652</v>
       </c>
       <c r="D13">
-        <v>0.01952071587117307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05730203854228941</v>
+      </c>
+      <c r="E13">
+        <v>-0.0821193705499328</v>
+      </c>
+      <c r="F13">
+        <v>0.09708254301294401</v>
+      </c>
+      <c r="G13">
+        <v>-0.02219454323872164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006541285959988653</v>
+        <v>0.004568912497239784</v>
       </c>
       <c r="C14">
-        <v>-0.03836213822812386</v>
+        <v>0.03339421870410923</v>
       </c>
       <c r="D14">
-        <v>-0.01360293158794475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02520446894853664</v>
+      </c>
+      <c r="E14">
+        <v>-0.0358144515523427</v>
+      </c>
+      <c r="F14">
+        <v>0.09527707642279279</v>
+      </c>
+      <c r="G14">
+        <v>0.004656102811916236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003500973353197412</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004648892740996927</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.005810340050950363</v>
+      </c>
+      <c r="E15">
+        <v>-0.002084293332414462</v>
+      </c>
+      <c r="F15">
+        <v>0.004141954073651342</v>
+      </c>
+      <c r="G15">
+        <v>0.001060791328611645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03735835611576015</v>
+        <v>0.03403805528744742</v>
       </c>
       <c r="C16">
-        <v>-0.04709643533938033</v>
+        <v>0.04519442431089221</v>
       </c>
       <c r="D16">
-        <v>0.009288487833923428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02722285861854532</v>
+      </c>
+      <c r="E16">
+        <v>-0.03031939161491401</v>
+      </c>
+      <c r="F16">
+        <v>0.06805097304587392</v>
+      </c>
+      <c r="G16">
+        <v>-0.001648680358807861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02332413706326567</v>
+        <v>0.01656597814832985</v>
       </c>
       <c r="C19">
-        <v>-0.06484585491801773</v>
+        <v>0.05059538114073939</v>
       </c>
       <c r="D19">
-        <v>0.07998243814800496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09053088780015311</v>
+      </c>
+      <c r="E19">
+        <v>-0.09894479749672937</v>
+      </c>
+      <c r="F19">
+        <v>0.07540848217815176</v>
+      </c>
+      <c r="G19">
+        <v>0.02282190086698863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01619992700733795</v>
+        <v>0.01380476393787174</v>
       </c>
       <c r="C20">
-        <v>-0.04862257109529149</v>
+        <v>0.04111582254871721</v>
       </c>
       <c r="D20">
-        <v>0.01664511228093719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03751368009301766</v>
+      </c>
+      <c r="E20">
+        <v>-0.06670032394449629</v>
+      </c>
+      <c r="F20">
+        <v>0.07852567466318362</v>
+      </c>
+      <c r="G20">
+        <v>-0.006163545255614319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01124072531097327</v>
+        <v>0.009438851520909933</v>
       </c>
       <c r="C21">
-        <v>-0.05133091912058853</v>
+        <v>0.04597028051000623</v>
       </c>
       <c r="D21">
-        <v>0.03977076659370526</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06701539323931187</v>
+      </c>
+      <c r="E21">
+        <v>-0.09582313647809305</v>
+      </c>
+      <c r="F21">
+        <v>0.1230731815124704</v>
+      </c>
+      <c r="G21">
+        <v>-0.009301602659217255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002204624081351323</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02402034636345939</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03685490846082037</v>
+      </c>
+      <c r="E22">
+        <v>-0.02923861789092911</v>
+      </c>
+      <c r="F22">
+        <v>0.01299374816974714</v>
+      </c>
+      <c r="G22">
+        <v>-0.03848193844685582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002274741523142517</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0241640949790617</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03651761105538767</v>
+      </c>
+      <c r="E23">
+        <v>-0.02951462145332494</v>
+      </c>
+      <c r="F23">
+        <v>0.01279706710027016</v>
+      </c>
+      <c r="G23">
+        <v>-0.03868811506286896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03308385256332033</v>
+        <v>0.0337200526967252</v>
       </c>
       <c r="C24">
-        <v>-0.05110008472350443</v>
+        <v>0.05351036299551656</v>
       </c>
       <c r="D24">
-        <v>0.008134724414734824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02617419294626449</v>
+      </c>
+      <c r="E24">
+        <v>-0.02717515564559014</v>
+      </c>
+      <c r="F24">
+        <v>0.07630855590485103</v>
+      </c>
+      <c r="G24">
+        <v>-0.009813984861830391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04681671119091796</v>
+        <v>0.04382990810382469</v>
       </c>
       <c r="C25">
-        <v>-0.06175416132444524</v>
+        <v>0.05726921899629989</v>
       </c>
       <c r="D25">
-        <v>-0.0005516026661713693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02445602002634997</v>
+      </c>
+      <c r="E25">
+        <v>-0.0217843063437731</v>
+      </c>
+      <c r="F25">
+        <v>0.07793720310898933</v>
+      </c>
+      <c r="G25">
+        <v>-0.02664257018195989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01663717151801133</v>
+        <v>0.01428984430625327</v>
       </c>
       <c r="C26">
-        <v>-0.01554272970961175</v>
+        <v>0.01731575232877253</v>
       </c>
       <c r="D26">
-        <v>-0.002599686367249257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02400768086712968</v>
+      </c>
+      <c r="E26">
+        <v>-0.03860282231159371</v>
+      </c>
+      <c r="F26">
+        <v>0.06839851651951538</v>
+      </c>
+      <c r="G26">
+        <v>0.01256449198525723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.08647841082749999</v>
+        <v>0.1337863483546994</v>
       </c>
       <c r="C28">
-        <v>0.2344498223084155</v>
+        <v>-0.246624984781319</v>
       </c>
       <c r="D28">
-        <v>-0.00602395151061757</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02063280081773968</v>
+      </c>
+      <c r="E28">
+        <v>-0.04988367531558324</v>
+      </c>
+      <c r="F28">
+        <v>0.06029809536105289</v>
+      </c>
+      <c r="G28">
+        <v>-0.01970504457002652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008392651996007689</v>
+        <v>0.005488854624168294</v>
       </c>
       <c r="C29">
-        <v>-0.03113635149030466</v>
+        <v>0.02926313139793965</v>
       </c>
       <c r="D29">
-        <v>-0.01914868867679776</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01868211154687881</v>
+      </c>
+      <c r="E29">
+        <v>-0.03607990408596932</v>
+      </c>
+      <c r="F29">
+        <v>0.08818288463343528</v>
+      </c>
+      <c r="G29">
+        <v>-0.008073146915330004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04971923073080504</v>
+        <v>0.04241049773612664</v>
       </c>
       <c r="C30">
-        <v>-0.06231137190716409</v>
+        <v>0.06504935407106113</v>
       </c>
       <c r="D30">
-        <v>0.07723693106308491</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1089613207113069</v>
+      </c>
+      <c r="E30">
+        <v>-0.06006564664846652</v>
+      </c>
+      <c r="F30">
+        <v>0.09033905421479739</v>
+      </c>
+      <c r="G30">
+        <v>0.01135917825247817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05425967852901022</v>
+        <v>0.05502182174069509</v>
       </c>
       <c r="C31">
-        <v>-0.03668854840177688</v>
+        <v>0.05546071608045542</v>
       </c>
       <c r="D31">
-        <v>-0.03068078824746232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01303073723066503</v>
+      </c>
+      <c r="E31">
+        <v>-0.06061848199550237</v>
+      </c>
+      <c r="F31">
+        <v>0.07355283096910963</v>
+      </c>
+      <c r="G31">
+        <v>-0.04743562137687265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001816011775802926</v>
+        <v>0.004516415989968243</v>
       </c>
       <c r="C32">
-        <v>-0.03962092388465414</v>
+        <v>0.03512949968726849</v>
       </c>
       <c r="D32">
-        <v>0.04428262704709392</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.0508274509956507</v>
+      </c>
+      <c r="E32">
+        <v>-0.03834009910901733</v>
+      </c>
+      <c r="F32">
+        <v>0.06565908846408783</v>
+      </c>
+      <c r="G32">
+        <v>0.009984593275377778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02768647690311984</v>
+        <v>0.02469337683796098</v>
       </c>
       <c r="C33">
-        <v>-0.06080107829067016</v>
+        <v>0.05502011901597255</v>
       </c>
       <c r="D33">
-        <v>0.04681972683005076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.07835289390676665</v>
+      </c>
+      <c r="E33">
+        <v>-0.07033110431903176</v>
+      </c>
+      <c r="F33">
+        <v>0.1195702242558903</v>
+      </c>
+      <c r="G33">
+        <v>-0.02138980860278002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04474630390612076</v>
+        <v>0.04111371599554378</v>
       </c>
       <c r="C34">
-        <v>-0.06639619172225425</v>
+        <v>0.06415856247446575</v>
       </c>
       <c r="D34">
-        <v>0.01128957054480159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03365263416430828</v>
+      </c>
+      <c r="E34">
+        <v>-0.001483058110758904</v>
+      </c>
+      <c r="F34">
+        <v>0.07798619016677744</v>
+      </c>
+      <c r="G34">
+        <v>-0.01180646030177889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01303827015874924</v>
+        <v>0.01302501304924528</v>
       </c>
       <c r="C36">
-        <v>-0.01725461104542789</v>
+        <v>0.0130564443286679</v>
       </c>
       <c r="D36">
-        <v>-0.002441812244188451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02618742826096734</v>
+      </c>
+      <c r="E36">
+        <v>-0.04553278960484148</v>
+      </c>
+      <c r="F36">
+        <v>0.0755319706933669</v>
+      </c>
+      <c r="G36">
+        <v>-0.009815478353855878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03047533587321831</v>
+        <v>0.02428772000645615</v>
       </c>
       <c r="C38">
-        <v>-0.02944063124408978</v>
+        <v>0.02491042612200551</v>
       </c>
       <c r="D38">
-        <v>-0.006332091975421773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02669449227759333</v>
+      </c>
+      <c r="E38">
+        <v>-0.04526088555761731</v>
+      </c>
+      <c r="F38">
+        <v>0.0631680210028866</v>
+      </c>
+      <c r="G38">
+        <v>-0.004265493151014643</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04531099270227715</v>
+        <v>0.03962297801034437</v>
       </c>
       <c r="C39">
-        <v>-0.07163844839757132</v>
+        <v>0.06875252252231281</v>
       </c>
       <c r="D39">
-        <v>0.02169966460776065</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05328278415305812</v>
+      </c>
+      <c r="E39">
+        <v>-0.03187127566821598</v>
+      </c>
+      <c r="F39">
+        <v>0.0869861689033814</v>
+      </c>
+      <c r="G39">
+        <v>0.01326692227510366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01243465738727821</v>
+        <v>0.01586722762549471</v>
       </c>
       <c r="C40">
-        <v>-0.05451632282295781</v>
+        <v>0.0403049839304392</v>
       </c>
       <c r="D40">
-        <v>0.02540839687137897</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03840769802473612</v>
+      </c>
+      <c r="E40">
+        <v>-0.08162825033875612</v>
+      </c>
+      <c r="F40">
+        <v>0.06980535588794529</v>
+      </c>
+      <c r="G40">
+        <v>-0.04607711267974576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01813427769582396</v>
+        <v>0.01775916267184927</v>
       </c>
       <c r="C41">
-        <v>-0.005157892113545631</v>
+        <v>0.007071949855796842</v>
       </c>
       <c r="D41">
-        <v>-0.002670785992142815</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01383139360014761</v>
+      </c>
+      <c r="E41">
+        <v>-0.04887462533536691</v>
+      </c>
+      <c r="F41">
+        <v>0.06489191560990956</v>
+      </c>
+      <c r="G41">
+        <v>-0.002859089721406821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03676774922065417</v>
+        <v>0.0285421779520454</v>
       </c>
       <c r="C43">
-        <v>-0.02260848183562311</v>
+        <v>0.02175002792306333</v>
       </c>
       <c r="D43">
-        <v>0.01834523309972062</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03949780353909215</v>
+      </c>
+      <c r="E43">
+        <v>-0.0595527123440022</v>
+      </c>
+      <c r="F43">
+        <v>0.0766865317451912</v>
+      </c>
+      <c r="G43">
+        <v>-0.02277460750125153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01511222700597877</v>
+        <v>0.01431718524450603</v>
       </c>
       <c r="C44">
-        <v>-0.06370888189491986</v>
+        <v>0.05162810632735235</v>
       </c>
       <c r="D44">
-        <v>0.01728107730701438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.04077646552081238</v>
+      </c>
+      <c r="E44">
+        <v>-0.07671017523401483</v>
+      </c>
+      <c r="F44">
+        <v>0.07693533182789547</v>
+      </c>
+      <c r="G44">
+        <v>0.005402430371065112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004812076718250007</v>
+        <v>0.007578498183124569</v>
       </c>
       <c r="C46">
-        <v>-0.02335886880223468</v>
+        <v>0.02609350618655752</v>
       </c>
       <c r="D46">
-        <v>-0.0212182740042169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009839597284786294</v>
+      </c>
+      <c r="E46">
+        <v>-0.04501709665498237</v>
+      </c>
+      <c r="F46">
+        <v>0.100420747422713</v>
+      </c>
+      <c r="G46">
+        <v>-0.00113629947344355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08391839904535849</v>
+        <v>0.08712678962636849</v>
       </c>
       <c r="C47">
-        <v>-0.06571807195423902</v>
+        <v>0.07915952866250518</v>
       </c>
       <c r="D47">
-        <v>-0.02757916465150149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01861475167347543</v>
+      </c>
+      <c r="E47">
+        <v>-0.06292603903057559</v>
+      </c>
+      <c r="F47">
+        <v>0.07502798724441309</v>
+      </c>
+      <c r="G47">
+        <v>-0.05056327234823505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01859319295922968</v>
+        <v>0.01564847453745279</v>
       </c>
       <c r="C48">
-        <v>-0.01386952287999514</v>
+        <v>0.01719131785281482</v>
       </c>
       <c r="D48">
-        <v>-0.01598845573024237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01472482169194878</v>
+      </c>
+      <c r="E48">
+        <v>-0.05650392823960349</v>
+      </c>
+      <c r="F48">
+        <v>0.09048573910567469</v>
+      </c>
+      <c r="G48">
+        <v>-0.009266353858599989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08119701516296994</v>
+        <v>0.0708224951803471</v>
       </c>
       <c r="C50">
-        <v>-0.07167138745643309</v>
+        <v>0.07188833993587306</v>
       </c>
       <c r="D50">
-        <v>-0.03023296021214497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005738325005444688</v>
+      </c>
+      <c r="E50">
+        <v>-0.06591592207443824</v>
+      </c>
+      <c r="F50">
+        <v>0.05997294780737016</v>
+      </c>
+      <c r="G50">
+        <v>-0.07063967913615037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.0146279760936018</v>
+        <v>0.01057833634936351</v>
       </c>
       <c r="C51">
-        <v>-0.05013074529542769</v>
+        <v>0.03420672355213469</v>
       </c>
       <c r="D51">
-        <v>0.02581095645452278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04911508713619336</v>
+      </c>
+      <c r="E51">
+        <v>-0.03607708776170902</v>
+      </c>
+      <c r="F51">
+        <v>0.07826062573027145</v>
+      </c>
+      <c r="G51">
+        <v>0.01898391098620887</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.0811726314393843</v>
+        <v>0.0933887481954373</v>
       </c>
       <c r="C53">
-        <v>-0.07627334675295812</v>
+        <v>0.08652267673792835</v>
       </c>
       <c r="D53">
-        <v>-0.03932030691644869</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04270047387361105</v>
+      </c>
+      <c r="E53">
+        <v>-0.05925850716993519</v>
+      </c>
+      <c r="F53">
+        <v>0.08330213546464271</v>
+      </c>
+      <c r="G53">
+        <v>-0.06123548392288541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03017208462470698</v>
+        <v>0.02771080684392435</v>
       </c>
       <c r="C54">
-        <v>-0.02621409449664845</v>
+        <v>0.02676698139327131</v>
       </c>
       <c r="D54">
-        <v>-0.0008496944828654615</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0286575719179031</v>
+      </c>
+      <c r="E54">
+        <v>-0.04567391038604347</v>
+      </c>
+      <c r="F54">
+        <v>0.09949688314420149</v>
+      </c>
+      <c r="G54">
+        <v>-0.009843592635840479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07520426225986804</v>
+        <v>0.0848810636518167</v>
       </c>
       <c r="C55">
-        <v>-0.05838577139352463</v>
+        <v>0.06979527837994524</v>
       </c>
       <c r="D55">
-        <v>-0.04750795499639417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04903977502939361</v>
+      </c>
+      <c r="E55">
+        <v>-0.04663505585228579</v>
+      </c>
+      <c r="F55">
+        <v>0.05881454474179892</v>
+      </c>
+      <c r="G55">
+        <v>-0.05038352045976816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1455070339608463</v>
+        <v>0.1466753256359735</v>
       </c>
       <c r="C56">
-        <v>-0.09377112341277012</v>
+        <v>0.1044754381662485</v>
       </c>
       <c r="D56">
-        <v>-0.04566112055233127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05209113497322308</v>
+      </c>
+      <c r="E56">
+        <v>-0.04918714702937797</v>
+      </c>
+      <c r="F56">
+        <v>0.0422414023024954</v>
+      </c>
+      <c r="G56">
+        <v>-0.05691432611332735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0009509590746693862</v>
+        <v>0.0003601705620319269</v>
       </c>
       <c r="C57">
-        <v>-0.0007169053463697784</v>
+        <v>0.0005799957817557835</v>
       </c>
       <c r="D57">
-        <v>0.01661597490771197</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01220051952003705</v>
+      </c>
+      <c r="E57">
+        <v>-0.009297789417006418</v>
+      </c>
+      <c r="F57">
+        <v>0.006452291554586607</v>
+      </c>
+      <c r="G57">
+        <v>-0.002641734060905564</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06032245259896513</v>
+        <v>0.02893718233735669</v>
       </c>
       <c r="C58">
-        <v>-0.02646645365811733</v>
+        <v>0.03668624258385766</v>
       </c>
       <c r="D58">
-        <v>0.7281915082531198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4139058769073243</v>
+      </c>
+      <c r="E58">
+        <v>-0.6667233457060563</v>
+      </c>
+      <c r="F58">
+        <v>-0.5378856479492478</v>
+      </c>
+      <c r="G58">
+        <v>0.06665748900474223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1302594065265914</v>
+        <v>0.1447582986588008</v>
       </c>
       <c r="C59">
-        <v>0.1953649302662073</v>
+        <v>-0.1863016412703012</v>
       </c>
       <c r="D59">
-        <v>0.01959932665480755</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03067851703573882</v>
+      </c>
+      <c r="E59">
+        <v>-0.02758228471385117</v>
+      </c>
+      <c r="F59">
+        <v>0.02157049256992374</v>
+      </c>
+      <c r="G59">
+        <v>0.02893670191158035</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3116936664998686</v>
+        <v>0.2833715930030247</v>
       </c>
       <c r="C60">
-        <v>-0.08148196964056012</v>
+        <v>0.09761323482492963</v>
       </c>
       <c r="D60">
-        <v>0.1170361812127242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2202875970777312</v>
+      </c>
+      <c r="E60">
+        <v>0.2655655416081523</v>
+      </c>
+      <c r="F60">
+        <v>-0.09304619993284746</v>
+      </c>
+      <c r="G60">
+        <v>-0.04850293163219572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04219773893626574</v>
+        <v>0.04105445445316417</v>
       </c>
       <c r="C61">
-        <v>-0.06549849102823181</v>
+        <v>0.06271326526788802</v>
       </c>
       <c r="D61">
-        <v>0.01702608026613212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0447888890827203</v>
+      </c>
+      <c r="E61">
+        <v>-0.0361824016395999</v>
+      </c>
+      <c r="F61">
+        <v>0.07778098378878541</v>
+      </c>
+      <c r="G61">
+        <v>-0.01269575648057039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01576492402607641</v>
+        <v>0.01508224559856499</v>
       </c>
       <c r="C63">
-        <v>-0.0358585411710956</v>
+        <v>0.03263959729015636</v>
       </c>
       <c r="D63">
-        <v>-0.006987170492196069</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0211772637963032</v>
+      </c>
+      <c r="E63">
+        <v>-0.04856123542951031</v>
+      </c>
+      <c r="F63">
+        <v>0.07133687583580595</v>
+      </c>
+      <c r="G63">
+        <v>-0.02858158202693433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04714839206692801</v>
+        <v>0.05550357763656516</v>
       </c>
       <c r="C64">
-        <v>-0.04306655602757443</v>
+        <v>0.05498846126991705</v>
       </c>
       <c r="D64">
-        <v>0.002316021522000985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.004827426934592854</v>
+      </c>
+      <c r="E64">
+        <v>-0.02938598727150675</v>
+      </c>
+      <c r="F64">
+        <v>0.08532926495934669</v>
+      </c>
+      <c r="G64">
+        <v>-0.01044488425307016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08926443503268416</v>
+        <v>0.06975773610790643</v>
       </c>
       <c r="C65">
-        <v>-0.03212186763714043</v>
+        <v>0.03318803785238959</v>
       </c>
       <c r="D65">
-        <v>0.05184267840766336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08698047529939054</v>
+      </c>
+      <c r="E65">
+        <v>-0.03754689040833857</v>
+      </c>
+      <c r="F65">
+        <v>0.0089540178750595</v>
+      </c>
+      <c r="G65">
+        <v>-0.004754966047803047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06389377170867511</v>
+        <v>0.05250357187850054</v>
       </c>
       <c r="C66">
-        <v>-0.102285783655575</v>
+        <v>0.09069657347115949</v>
       </c>
       <c r="D66">
-        <v>0.04440749801784205</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08071768585237719</v>
+      </c>
+      <c r="E66">
+        <v>-0.03817606348135003</v>
+      </c>
+      <c r="F66">
+        <v>0.08889014074398116</v>
+      </c>
+      <c r="G66">
+        <v>-0.004688227011624254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05294214785717698</v>
+        <v>0.04623485911757164</v>
       </c>
       <c r="C67">
-        <v>-0.03336369037389212</v>
+        <v>0.03135986717920442</v>
       </c>
       <c r="D67">
-        <v>-0.009131403279155756</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0137684380961174</v>
+      </c>
+      <c r="E67">
+        <v>-0.02550261300028148</v>
+      </c>
+      <c r="F67">
+        <v>0.05160487964078492</v>
+      </c>
+      <c r="G67">
+        <v>-0.01073733032707041</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1158176855600451</v>
+        <v>0.149899602356203</v>
       </c>
       <c r="C68">
-        <v>0.2832905205998715</v>
+        <v>-0.2508054956038779</v>
       </c>
       <c r="D68">
-        <v>-0.01026337420584976</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01968531781185184</v>
+      </c>
+      <c r="E68">
+        <v>-0.04304713639534941</v>
+      </c>
+      <c r="F68">
+        <v>0.01509087652581289</v>
+      </c>
+      <c r="G68">
+        <v>-0.01089549694644817</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09050906428599707</v>
+        <v>0.0869315078966721</v>
       </c>
       <c r="C69">
-        <v>-0.06406809425723313</v>
+        <v>0.08558027645182008</v>
       </c>
       <c r="D69">
-        <v>-0.03950417145482205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01031233401642452</v>
+      </c>
+      <c r="E69">
+        <v>-0.04650278322304626</v>
+      </c>
+      <c r="F69">
+        <v>0.09237186936884868</v>
+      </c>
+      <c r="G69">
+        <v>-0.02787144470403643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1106383703133145</v>
+        <v>0.142750150057844</v>
       </c>
       <c r="C71">
-        <v>0.2452793030158426</v>
+        <v>-0.2342730546769351</v>
       </c>
       <c r="D71">
-        <v>0.02474118169711265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01281763094603716</v>
+      </c>
+      <c r="E71">
+        <v>-0.06194974889157619</v>
+      </c>
+      <c r="F71">
+        <v>0.05659934221963704</v>
+      </c>
+      <c r="G71">
+        <v>-0.03696523217130172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.089663664638375</v>
+        <v>0.09779852374885857</v>
       </c>
       <c r="C72">
-        <v>-0.0514010198916847</v>
+        <v>0.05663633977534954</v>
       </c>
       <c r="D72">
-        <v>0.004404971893434903</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02766566028684814</v>
+      </c>
+      <c r="E72">
+        <v>-0.01504527789538708</v>
+      </c>
+      <c r="F72">
+        <v>0.07091872894650256</v>
+      </c>
+      <c r="G72">
+        <v>-0.03324815626524738</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4216671892552951</v>
+        <v>0.347776848335065</v>
       </c>
       <c r="C73">
-        <v>-0.05506992494687639</v>
+        <v>0.07950062923534763</v>
       </c>
       <c r="D73">
-        <v>0.3167746835644593</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4668940534935709</v>
+      </c>
+      <c r="E73">
+        <v>0.4733989808686079</v>
+      </c>
+      <c r="F73">
+        <v>-0.2508001132964596</v>
+      </c>
+      <c r="G73">
+        <v>-0.1052744818585547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1105281450207337</v>
+        <v>0.1110302744962164</v>
       </c>
       <c r="C74">
-        <v>-0.09925520688037556</v>
+        <v>0.09874313170372923</v>
       </c>
       <c r="D74">
-        <v>-0.02336011758109253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03221200600504106</v>
+      </c>
+      <c r="E74">
+        <v>-0.06374274618963505</v>
+      </c>
+      <c r="F74">
+        <v>0.04888398082235701</v>
+      </c>
+      <c r="G74">
+        <v>-0.07363453701065611</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2518027790651556</v>
+        <v>0.2569067206968833</v>
       </c>
       <c r="C75">
-        <v>-0.1020417015831358</v>
+        <v>0.1311917654425604</v>
       </c>
       <c r="D75">
-        <v>-0.08385564520703284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.130618477795878</v>
+      </c>
+      <c r="E75">
+        <v>-0.06895791770167682</v>
+      </c>
+      <c r="F75">
+        <v>0.008584650325400208</v>
+      </c>
+      <c r="G75">
+        <v>-0.07087775480716017</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1130623797753446</v>
+        <v>0.1277996391813675</v>
       </c>
       <c r="C76">
-        <v>-0.08932550762409501</v>
+        <v>0.09943570612724596</v>
       </c>
       <c r="D76">
-        <v>-0.04264778921461331</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06094397662542247</v>
+      </c>
+      <c r="E76">
+        <v>-0.07672923035941635</v>
+      </c>
+      <c r="F76">
+        <v>0.06616588421704764</v>
+      </c>
+      <c r="G76">
+        <v>-0.05685463107258904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07780406048197044</v>
+        <v>0.06321926865664719</v>
       </c>
       <c r="C77">
-        <v>-0.05926016623802045</v>
+        <v>0.07370832303446415</v>
       </c>
       <c r="D77">
-        <v>0.05847498909963839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06121517525697056</v>
+      </c>
+      <c r="E77">
+        <v>-0.09104423509240864</v>
+      </c>
+      <c r="F77">
+        <v>0.1093018589916666</v>
+      </c>
+      <c r="G77">
+        <v>0.1338937246914315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04903587460783552</v>
+        <v>0.04332732800986539</v>
       </c>
       <c r="C78">
-        <v>-0.04856515495292262</v>
+        <v>0.06145786136276999</v>
       </c>
       <c r="D78">
-        <v>0.02334383058740589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06711150213088873</v>
+      </c>
+      <c r="E78">
+        <v>-0.0417371147794014</v>
+      </c>
+      <c r="F78">
+        <v>0.09065934833550073</v>
+      </c>
+      <c r="G78">
+        <v>-0.008473135295342297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02584672906846194</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03897843566996045</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06317522205393357</v>
+      </c>
+      <c r="E79">
+        <v>-0.05528569275935742</v>
+      </c>
+      <c r="F79">
+        <v>0.03468305625051238</v>
+      </c>
+      <c r="G79">
+        <v>-0.06508416125144881</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04602310592817302</v>
+        <v>0.03478966037788771</v>
       </c>
       <c r="C80">
-        <v>-0.0541657169447688</v>
+        <v>0.05467490712021447</v>
       </c>
       <c r="D80">
-        <v>0.03032096202377756</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04345424050508917</v>
+      </c>
+      <c r="E80">
+        <v>-0.01538456401850558</v>
+      </c>
+      <c r="F80">
+        <v>0.03451942985349671</v>
+      </c>
+      <c r="G80">
+        <v>0.04708061825473395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1407668102471985</v>
+        <v>0.1404337292986608</v>
       </c>
       <c r="C81">
-        <v>-0.07649359884488034</v>
+        <v>0.09376296175891305</v>
       </c>
       <c r="D81">
-        <v>-0.06688276484239346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1022276576504478</v>
+      </c>
+      <c r="E81">
+        <v>-0.08406772025052886</v>
+      </c>
+      <c r="F81">
+        <v>0.0098909005227024</v>
+      </c>
+      <c r="G81">
+        <v>-0.05046706655024627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1596142621229995</v>
+        <v>0.2023157661190622</v>
       </c>
       <c r="C82">
-        <v>-0.06567271232787433</v>
+        <v>0.1376406193101496</v>
       </c>
       <c r="D82">
-        <v>-0.1609577129963851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2409789849493572</v>
+      </c>
+      <c r="E82">
+        <v>-0.0004039471659995848</v>
+      </c>
+      <c r="F82">
+        <v>0.09391706649449587</v>
+      </c>
+      <c r="G82">
+        <v>-0.04684570701289267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03811807698730199</v>
+        <v>0.02827787467460893</v>
       </c>
       <c r="C83">
-        <v>-0.02527287218206533</v>
+        <v>0.04185610364428432</v>
       </c>
       <c r="D83">
-        <v>0.03417808676270384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03421971355501917</v>
+      </c>
+      <c r="E83">
+        <v>-0.0200783120341118</v>
+      </c>
+      <c r="F83">
+        <v>0.04261943961536348</v>
+      </c>
+      <c r="G83">
+        <v>0.02093033135520302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>2.690012723949009e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0002026112005504729</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>1.062540001993114e-06</v>
+      </c>
+      <c r="E84">
+        <v>3.245629586288382e-05</v>
+      </c>
+      <c r="F84">
+        <v>0.0002357911199714349</v>
+      </c>
+      <c r="G84">
+        <v>-0.00020730061345606</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.219844915872514</v>
+        <v>0.203274071279272</v>
       </c>
       <c r="C85">
-        <v>-0.09964232396596061</v>
+        <v>0.1179882470012754</v>
       </c>
       <c r="D85">
-        <v>-0.1129017572063077</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09864415951151602</v>
+      </c>
+      <c r="E85">
+        <v>0.001506059798365749</v>
+      </c>
+      <c r="F85">
+        <v>-0.01560934917875203</v>
+      </c>
+      <c r="G85">
+        <v>-0.121543336142269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008880364176660552</v>
+        <v>0.01109568637826587</v>
       </c>
       <c r="C86">
-        <v>-0.04136647966034827</v>
+        <v>0.03188189787211551</v>
       </c>
       <c r="D86">
-        <v>0.0448391347467296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06486635232644411</v>
+      </c>
+      <c r="E86">
+        <v>-0.06284823825641621</v>
+      </c>
+      <c r="F86">
+        <v>0.1286724132415332</v>
+      </c>
+      <c r="G86">
+        <v>0.01114820836096002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02282510353941408</v>
+        <v>0.02202027950658958</v>
       </c>
       <c r="C87">
-        <v>-0.02033234969981078</v>
+        <v>0.02222552211809374</v>
       </c>
       <c r="D87">
-        <v>0.09669460270418706</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08853201196074935</v>
+      </c>
+      <c r="E87">
+        <v>-0.110019076814859</v>
+      </c>
+      <c r="F87">
+        <v>0.07421565050532287</v>
+      </c>
+      <c r="G87">
+        <v>0.03724374254684076</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1088759977301811</v>
+        <v>0.0932812836515825</v>
       </c>
       <c r="C88">
-        <v>-0.06375977306350315</v>
+        <v>0.0611229615123955</v>
       </c>
       <c r="D88">
-        <v>-0.03345420566642025</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.005559857725796037</v>
+      </c>
+      <c r="E88">
+        <v>-0.04202768352874767</v>
+      </c>
+      <c r="F88">
+        <v>0.07306700259735406</v>
+      </c>
+      <c r="G88">
+        <v>0.0267409554553909</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1769122102724774</v>
+        <v>0.2205993910874831</v>
       </c>
       <c r="C89">
-        <v>0.3778090930980332</v>
+        <v>-0.3791427327405761</v>
       </c>
       <c r="D89">
-        <v>-0.01908749459000928</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.005217110677646446</v>
+      </c>
+      <c r="E89">
+        <v>-0.06348152508063883</v>
+      </c>
+      <c r="F89">
+        <v>0.07440377014560977</v>
+      </c>
+      <c r="G89">
+        <v>0.06424501522690682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1719535305498139</v>
+        <v>0.2000195170285544</v>
       </c>
       <c r="C90">
-        <v>0.3434960619533018</v>
+        <v>-0.3147317751152195</v>
       </c>
       <c r="D90">
-        <v>-0.0213028178279597</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01330534548621075</v>
+      </c>
+      <c r="E90">
+        <v>-0.072830305237021</v>
+      </c>
+      <c r="F90">
+        <v>0.04192078119127727</v>
+      </c>
+      <c r="G90">
+        <v>0.01331057939910457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1898146143570633</v>
+        <v>0.1855974496976585</v>
       </c>
       <c r="C91">
-        <v>-0.1240465333366737</v>
+        <v>0.1404181891389237</v>
       </c>
       <c r="D91">
-        <v>-0.08467414842756557</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1103742916496587</v>
+      </c>
+      <c r="E91">
+        <v>-0.06025291191005543</v>
+      </c>
+      <c r="F91">
+        <v>0.03273906000926388</v>
+      </c>
+      <c r="G91">
+        <v>-0.05672282017142946</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1633649953191662</v>
+        <v>0.1820044482683303</v>
       </c>
       <c r="C92">
-        <v>0.2916947884285942</v>
+        <v>-0.284684969031157</v>
       </c>
       <c r="D92">
-        <v>-0.006500073173759151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006030529569793062</v>
+      </c>
+      <c r="E92">
+        <v>-0.06803054582367739</v>
+      </c>
+      <c r="F92">
+        <v>0.08212150355927363</v>
+      </c>
+      <c r="G92">
+        <v>0.008704801650199354</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1963409574942557</v>
+        <v>0.2243698044122334</v>
       </c>
       <c r="C93">
-        <v>0.3461305019052038</v>
+        <v>-0.3189805303204598</v>
       </c>
       <c r="D93">
-        <v>-0.01723081534341187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004119541952527997</v>
+      </c>
+      <c r="E93">
+        <v>-0.04994204357305482</v>
+      </c>
+      <c r="F93">
+        <v>0.04108328348994589</v>
+      </c>
+      <c r="G93">
+        <v>-0.02898764109043051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3379883698660808</v>
+        <v>0.3428580610141589</v>
       </c>
       <c r="C94">
-        <v>-0.1413696740569192</v>
+        <v>0.180547190854268</v>
       </c>
       <c r="D94">
-        <v>-0.4376404207590473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.495207058055418</v>
+      </c>
+      <c r="E94">
+        <v>-0.05222708838692386</v>
+      </c>
+      <c r="F94">
+        <v>-0.4433855051176515</v>
+      </c>
+      <c r="G94">
+        <v>0.323614719984895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1119305834204453</v>
+        <v>0.08603046032792908</v>
       </c>
       <c r="C95">
-        <v>-0.07858133302223978</v>
+        <v>0.06833935407646875</v>
       </c>
       <c r="D95">
-        <v>0.1172199594639659</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1697713511911016</v>
+      </c>
+      <c r="E95">
+        <v>0.1063919217009271</v>
+      </c>
+      <c r="F95">
+        <v>0.2164150476356566</v>
+      </c>
+      <c r="G95">
+        <v>0.8700206241838432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1970262869835965</v>
+        <v>0.1881834863596072</v>
       </c>
       <c r="C98">
-        <v>-0.02002893047358438</v>
+        <v>0.04394175063645538</v>
       </c>
       <c r="D98">
-        <v>0.1254726958528328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1869115772817254</v>
+      </c>
+      <c r="E98">
+        <v>0.1473284180745126</v>
+      </c>
+      <c r="F98">
+        <v>-0.03524469191432909</v>
+      </c>
+      <c r="G98">
+        <v>-0.1022750806182355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008328241845708056</v>
+        <v>0.005539858946259105</v>
       </c>
       <c r="C101">
-        <v>-0.03115033351726379</v>
+        <v>0.02900460227983225</v>
       </c>
       <c r="D101">
-        <v>-0.01970888241200454</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0181534255446884</v>
+      </c>
+      <c r="E101">
+        <v>-0.03674062143886557</v>
+      </c>
+      <c r="F101">
+        <v>0.08789560470913414</v>
+      </c>
+      <c r="G101">
+        <v>-0.00699493237501268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.121114509087405</v>
+        <v>0.1239936607481249</v>
       </c>
       <c r="C102">
-        <v>-0.07275364902421071</v>
+        <v>0.09921860965040782</v>
       </c>
       <c r="D102">
-        <v>-0.02770146849555869</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04831366425369886</v>
+      </c>
+      <c r="E102">
+        <v>0.006227958557779443</v>
+      </c>
+      <c r="F102">
+        <v>0.04314974672069272</v>
+      </c>
+      <c r="G102">
+        <v>-0.02002066114857424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
